--- a/program/results/result_v030_lin_square/analyze.xlsx
+++ b/program/results/result_v030_lin_square/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-263.6107494852732</v>
+        <v>38.73686994067793</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1645068297023073</v>
+        <v>0.02902970107531709</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.85141889232891</v>
+        <v>23.9507980877494</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2912973549870926</v>
+        <v>0.07429114298299155</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005554826025725879</v>
+        <v>0.006454719813104193</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>44.92398162382958</v>
+        <v>423.8593666143709</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09528552909298926</v>
+        <v>0.3041785485991986</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.1436057736422</v>
+        <v>93.40502337526772</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2624229100405017</v>
+        <v>0.3799841642576061</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002454217385426616</v>
+        <v>0.03062843836926721</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-298.5448034529061</v>
+        <v>-10.63954057801811</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1849170843784506</v>
+        <v>0.02519612142724582</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.40095381241866</v>
+        <v>58.86349331494831</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2912978750414543</v>
+        <v>0.09254813211713375</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09254813211713375</v>
+        <v>0.0001257017249087777</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-259.1930918794897</v>
+        <v>50.36928186016621</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1620888188855506</v>
+        <v>0.03750069088381017</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.8655675373267</v>
+        <v>21.53549763904509</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.307351370140966</v>
+        <v>0.07447848904185905</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0003657479829533017</v>
+        <v>0.0113691299777563</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>29.28033743759615</v>
+        <v>30.77783953949566</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02317684211707637</v>
+        <v>0.01840066278176544</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.34692069309892</v>
+        <v>6.876788860128732</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0820444541665335</v>
+        <v>0.07974881737142414</v>
       </c>
     </row>
     <row r="5">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-216.248167002465</v>
+        <v>102.9083963633918</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.137875221853114</v>
+        <v>0.07323691385025372</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.0622491419249</v>
+        <v>8.209057631518075</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770933193946766</v>
+        <v>0.1053543398230181</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001468368811319287</v>
+        <v>0.0306315281174625</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-304.2897802875909</v>
+        <v>-13.06064446170462</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1887370233674958</v>
+        <v>0.02514522395954631</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.38490736582689</v>
+        <v>42.45341044548575</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2955219274418696</v>
+        <v>0.05962880830440609</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05569770333603741</v>
+        <v>3.005498955266361e-05</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-272.7822113622926</v>
+        <v>24.38729115110823</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.169679374685036</v>
+        <v>0.02720026997110115</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.54486989707824</v>
+        <v>36.17697358545851</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2610681594756492</v>
+        <v>0.07055523409125652</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03240883452377419</v>
+        <v>0.0001106043965450887</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-241.2777091150913</v>
+        <v>72.88235082561066</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1520422593789873</v>
+        <v>0.0521940773019739</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.70510153149321</v>
+        <v>11.12374145118157</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770933026677398</v>
+        <v>0.08817545522669357</v>
       </c>
     </row>
     <row r="5">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007050385655333891</v>
+        <v>0.03063157894008106</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-322.0504073196669</v>
+        <v>-31.10686843119723</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1994581566937516</v>
+        <v>0.0232289240263243</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.46368434322551</v>
+        <v>57.39438795851963</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2922342279866746</v>
+        <v>0.1013380227045411</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1013380227045411</v>
+        <v>6.759017956181612e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-213.5759208008927</v>
+        <v>96.52990903562674</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1339963630307548</v>
+        <v>0.07039055671888886</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.47780012346011</v>
+        <v>27.08846127966101</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2549214264903438</v>
+        <v>0.1152227597480824</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002069049779764853</v>
+        <v>0.01142830396413674</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-407.8605488269533</v>
+        <v>-122.5104738030471</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2521722190771052</v>
+        <v>0.08336611828089299</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.54248914859745</v>
+        <v>45.98995875698314</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3873736347475549</v>
+        <v>0.1179389953056666</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04681917385021095</v>
+        <v>0.01848244914305985</v>
       </c>
     </row>
   </sheetData>
